--- a/data/trans_bre/P10_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 8,59</t>
+          <t>-1,42; 9,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 14,35</t>
+          <t>-1,37; 15,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,4</t>
+          <t>-3,47; 12,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 9,48</t>
+          <t>-2,26; 9,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 958,09</t>
+          <t>-45,29; 1106,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 329,18</t>
+          <t>-17,33; 346,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 308,55</t>
+          <t>-39,02; 313,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 407,8</t>
+          <t>-33,12; 360,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,34</t>
+          <t>-1,44; 3,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,46</t>
+          <t>5,15; 12,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,58</t>
+          <t>2,1; 8,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,95</t>
+          <t>1,73; 6,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 111,44</t>
+          <t>-28,43; 117,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 262,85</t>
+          <t>63,65; 255,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,36; 191,41</t>
+          <t>26,29; 198,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 159,28</t>
+          <t>21,4; 165,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,27</t>
+          <t>-0,3; 4,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,96</t>
+          <t>4,51; 10,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 9,03</t>
+          <t>4,44; 9,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 7,36</t>
+          <t>2,91; 7,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 101,33</t>
+          <t>-4,68; 100,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,17; 161,4</t>
+          <t>48,78; 164,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,89; 288,95</t>
+          <t>89,0; 298,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 178,25</t>
+          <t>46,54; 170,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,73</t>
+          <t>2,66; 9,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,56</t>
+          <t>4,13; 10,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,28</t>
+          <t>3,62; 9,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,5</t>
+          <t>-2,0; 5,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 185,1</t>
+          <t>28,63; 181,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,49; 240,79</t>
+          <t>52,86; 240,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 249,58</t>
+          <t>54,91; 236,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,82; 90,1</t>
+          <t>-20,08; 90,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,29</t>
+          <t>1,73; 6,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,2</t>
+          <t>3,63; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,82</t>
+          <t>0,59; 5,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,79</t>
+          <t>4,59; 9,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,37; 144,06</t>
+          <t>25,5; 154,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,63; 156,8</t>
+          <t>42,56; 158,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 101,52</t>
+          <t>5,21; 97,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,53; 221,89</t>
+          <t>71,07; 215,76</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>2,05; 4,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,65; 8,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>4,01; 6,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,2</t>
+          <t>3,37; 6,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>35,97; 96,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>76,86; 143,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>65,94; 139,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,07; 116,83</t>
+          <t>51,11; 118,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 9,08</t>
+          <t>-1,29; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 15,16</t>
+          <t>-1,67; 14,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 12,8</t>
+          <t>-2,73; 13,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 1106,93</t>
+          <t>-55,92; 1081,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 346,45</t>
+          <t>-17,14; 376,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 313,25</t>
+          <t>-34,36; 353,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,41</t>
+          <t>-1,47; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,5</t>
+          <t>4,73; 12,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,75</t>
+          <t>2,17; 8,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 117,42</t>
+          <t>-28,49; 117,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,65; 255,9</t>
+          <t>56,76; 252,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,29; 198,14</t>
+          <t>25,79; 197,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,27</t>
+          <t>-0,23; 4,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,09</t>
+          <t>4,37; 9,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,2</t>
+          <t>4,54; 9,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 100,04</t>
+          <t>-3,84; 105,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,78; 164,77</t>
+          <t>51,42; 157,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,0; 298,24</t>
+          <t>92,04; 294,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,36</t>
+          <t>2,49; 8,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,63</t>
+          <t>4,16; 10,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,18</t>
+          <t>3,69; 9,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,63; 181,86</t>
+          <t>30,2; 173,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,86; 240,49</t>
+          <t>50,37; 227,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,91; 236,6</t>
+          <t>59,0; 262,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,48</t>
+          <t>1,76; 6,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,98</t>
+          <t>3,57; 9,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,69</t>
+          <t>0,25; 5,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,5; 154,06</t>
+          <t>25,22; 150,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,56; 158,65</t>
+          <t>37,16; 152,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 97,07</t>
+          <t>3,22; 98,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,49</t>
+          <t>2,11; 4,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,69</t>
+          <t>5,75; 8,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,69</t>
+          <t>3,91; 6,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,97; 96,04</t>
+          <t>36,79; 97,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,86; 143,71</t>
+          <t>76,14; 144,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>65,94; 139,16</t>
+          <t>66,15; 140,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
